--- a/data/X_Y_Inputs/CNN_Hyperparameters.xlsx
+++ b/data/X_Y_Inputs/CNN_Hyperparameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Joseph\Documents\GitHub\power-forecasting-capstone\data\X_Y_Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED510B79-B8F8-4D86-8D7C-F2017F86002A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A73B500-89CD-423B-8F67-C6DA8E153FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="675" windowWidth="21600" windowHeight="15075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="3" r:id="rId1"/>
@@ -94,7 +94,29 @@
     <t>mean squared logarithmic error</t>
   </si>
   <si>
-    <t>Choose number of epochs. Training time of model increase with number of epochs.</t>
+    <t>Batch Size</t>
+  </si>
+  <si>
+    <t>Activation Function</t>
+  </si>
+  <si>
+    <t>Choose the number of convolutional and max pooling hidden layer pairs (If 3 layers are selected, there are a total of 6 hidden layers). The number of max pooling layers is capped at 6. If selection is more than 6, only convolutional hidden layers will be added.</t>
+  </si>
+  <si>
+    <t>Choose batch size. Batch size is the number of data samples the model processes at once before updating its learning.</t>
+  </si>
+  <si>
+    <t>Choose loss function from available list. 
+MAE: The average of absolute differences between predictions and actual values, treating all errors equally.
+MSE: The average of squared differences between predictions and actual values, giving more weight to larger errors.
+Huber: A combination of MSE and MAE that treats small errors like MSE for smooth optimization but reduces the impact of large errors like MAE.
+MAPE: The average of absolute percentage differences between predictions and actual values, making it independent to scale but sensitive to small values.
+MSLE:  Similar to MSE but compares the logarithm of predicted and actual values, reducing the effect of large outliers.</t>
+  </si>
+  <si>
+    <t>Choose activation function from available list. 
+ReLU: This allows it to learn non linear patterns in the data. It sets negative values to zero while allowing postive values to pass through.
+Tanh: This scales outputs between -1 to 1 with activations centering around zero. This can cause vanishing gradients.</t>
   </si>
   <si>
     <r>
@@ -104,7 +126,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -119,33 +141,41 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Execution time of model significantly increase with number of iterations.</t>
+      <t xml:space="preserve"> Execution time of model significantly increases with number of iterations.</t>
     </r>
   </si>
   <si>
-    <t>Batch Size</t>
-  </si>
-  <si>
-    <t>Choose batch size.</t>
-  </si>
-  <si>
-    <t>Choose activation function from available list.</t>
-  </si>
-  <si>
-    <t>Activation Function</t>
-  </si>
-  <si>
-    <t>Choose loss function from available list.</t>
-  </si>
-  <si>
-    <t>Choose the number of convolutional and max pooling hidden layer pairs (If 3 layers are selected, there are a total of 6 hidden layers). The number of max pooling layers is capped at 6. If selection is more than 6, only convolutional hidden layers will be added.</t>
+    <r>
+      <t xml:space="preserve">Choose number of epochs. Epochs are the number of times the model sees all the data. Increasing the number of epochs typically improves model accuracy but excessive training can lead to overfitting. Our processing ensures this does not occur.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CAUTION:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Execution time of model significantly increases with number of epochs.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +211,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -274,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -296,9 +334,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,10 +622,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFD86DCD"/>
   </sheetPr>
-  <dimension ref="B2:J28"/>
+  <dimension ref="B2:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +703,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>9</v>
@@ -705,14 +740,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+    <row r="14" spans="2:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
@@ -721,7 +756,7 @@
     </row>
     <row r="16" spans="2:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -730,10 +765,10 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>25</v>
       </c>
@@ -744,12 +779,12 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
-        <v>26</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -761,9 +796,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -777,15 +812,15 @@
     </row>
     <row r="24" spans="2:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>3</v>
       </c>
     </row>
@@ -813,8 +848,8 @@
   </sheetPr>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,10 +872,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>11</v>
